--- a/data/Fall_Simulation_Data/Data_Description.xlsx
+++ b/data/Fall_Simulation_Data/Data_Description.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d15e00b61aeeaa0/Documents/Arbeit und Beruf/Uppsala/Project in Data Science/human-fall-detection/data/Fall_Simulation_Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_54C010063772705572BAF5A7DA2E9D88B3112946" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2C5F9A4-6D78-BB4C-B69D-61781EF339EE}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="43220" yWindow="2940" windowWidth="32300" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fall" sheetId="1" r:id="rId1"/>
     <sheet name="ADL" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -420,7 +439,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -569,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -612,16 +631,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -630,7 +643,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -695,7 +708,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -703,14 +716,298 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>705960</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>375020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>706320</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>375380</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6023E0-E93E-01EB-55ED-3B8D23FBC132}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="705960" y="616320"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6023E0-E93E-01EB-55ED-3B8D23FBC132}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="697320" y="607680"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>511020</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>379700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>511380</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>380060</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8008E3FC-13CF-DBB3-F071-CB5981AE8821}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4282920" y="621000"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8008E3FC-13CF-DBB3-F071-CB5981AE8821}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4273920" y="612360"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>549720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66620</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498951A0-3248-1068-0EAA-880BCF57539A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9236520" y="1520280"/>
+            <a:ext cx="11520" cy="6840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498951A0-3248-1068-0EAA-880BCF57539A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9227520" y="1511640"/>
+              <a:ext cx="29160" cy="24480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-13T16:39:35.219"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-13T16:40:08.057"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-11-13T16:40:08.800"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 19 8191,'17'-9'0,"-3"4"0,-14 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -748,7 +1045,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -820,7 +1117,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -993,47 +1290,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:Q57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="54.42578125" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="1"/>
-    <col min="13" max="17" width="9.140625" style="2"/>
+    <col min="5" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="54.5" customWidth="1"/>
+    <col min="9" max="11" width="9.1640625" style="1"/>
+    <col min="12" max="12" width="26.6640625" style="1" customWidth="1"/>
+    <col min="13" max="17" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="44" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="42"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1086,2918 +1384,2918 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="16">
         <v>5.4398148148148144E-4</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="17">
         <v>5.5555555555555556E-4</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="17">
         <v>5.7870370370370378E-4</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="18">
         <v>1.5972222222222221E-3</v>
       </c>
-      <c r="M3" s="21">
-        <v>5</v>
-      </c>
-      <c r="N3" s="22">
-        <v>2</v>
-      </c>
-      <c r="O3" s="22">
-        <v>3</v>
-      </c>
-      <c r="P3" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="19">
+        <v>5</v>
+      </c>
+      <c r="N3" s="20">
+        <v>2</v>
+      </c>
+      <c r="O3" s="20">
+        <v>3</v>
+      </c>
+      <c r="P3" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <v>1.1226851851851851E-3</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <v>1.1342592592592591E-3</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="17">
         <v>1.1574074074074073E-3</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="18">
         <v>3.1249999999999997E-3</v>
       </c>
-      <c r="M4" s="21">
-        <v>4</v>
-      </c>
-      <c r="N4" s="22">
-        <v>1</v>
-      </c>
-      <c r="O4" s="22">
-        <v>3</v>
-      </c>
-      <c r="P4" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="19">
+        <v>4</v>
+      </c>
+      <c r="N4" s="20">
+        <v>1</v>
+      </c>
+      <c r="O4" s="20">
+        <v>3</v>
+      </c>
+      <c r="P4" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>1.4814814814814814E-3</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="17">
         <v>1.4930555555555556E-3</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="17">
         <v>1.5162037037037036E-3</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="18">
         <v>2.7199074074074074E-3</v>
       </c>
-      <c r="M5" s="21">
-        <v>5</v>
-      </c>
-      <c r="N5" s="22">
-        <v>2</v>
-      </c>
-      <c r="O5" s="22">
-        <v>3</v>
-      </c>
-      <c r="P5" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="19">
+        <v>5</v>
+      </c>
+      <c r="N5" s="20">
+        <v>2</v>
+      </c>
+      <c r="O5" s="20">
+        <v>3</v>
+      </c>
+      <c r="P5" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="16">
         <v>1.0995370370370371E-3</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="17">
         <v>1.0879629629629629E-3</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="17">
         <v>1.1111111111111111E-3</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="18">
         <v>2.7199074074074074E-3</v>
       </c>
-      <c r="M6" s="21">
-        <v>4</v>
-      </c>
-      <c r="N6" s="22">
-        <v>2</v>
-      </c>
-      <c r="O6" s="22">
-        <v>3</v>
-      </c>
-      <c r="P6" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="19">
+        <v>4</v>
+      </c>
+      <c r="N6" s="20">
+        <v>2</v>
+      </c>
+      <c r="O6" s="20">
+        <v>3</v>
+      </c>
+      <c r="P6" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="16">
         <v>3.7037037037037035E-4</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="17">
         <v>3.8194444444444446E-4</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="17">
         <v>3.9351851851851852E-4</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="18">
         <v>2.7199074074074074E-3</v>
       </c>
-      <c r="M7" s="21">
-        <v>5</v>
-      </c>
-      <c r="N7" s="22">
-        <v>1</v>
-      </c>
-      <c r="O7" s="22">
-        <v>4</v>
-      </c>
-      <c r="P7" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="19">
+        <v>5</v>
+      </c>
+      <c r="N7" s="20">
+        <v>1</v>
+      </c>
+      <c r="O7" s="20">
+        <v>4</v>
+      </c>
+      <c r="P7" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="16">
         <v>5.0925925925925921E-4</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="17">
         <v>5.3240740740740744E-4</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="17">
         <v>5.4398148148148144E-4</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="18">
         <v>2.9513888888888888E-3</v>
       </c>
-      <c r="M8" s="21">
-        <v>5</v>
-      </c>
-      <c r="N8" s="22">
-        <v>1</v>
-      </c>
-      <c r="O8" s="22">
-        <v>4</v>
-      </c>
-      <c r="P8" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="19">
+        <v>5</v>
+      </c>
+      <c r="N8" s="20">
+        <v>1</v>
+      </c>
+      <c r="O8" s="20">
+        <v>4</v>
+      </c>
+      <c r="P8" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="C9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="16">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="17">
         <v>3.3564814814814812E-4</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <v>3.5879629629629635E-4</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="18">
         <v>2.6620370370370374E-3</v>
       </c>
-      <c r="M9" s="21">
-        <v>3</v>
-      </c>
-      <c r="N9" s="22">
-        <v>4</v>
-      </c>
-      <c r="O9" s="22">
-        <v>1</v>
-      </c>
-      <c r="P9" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="19">
+        <v>3</v>
+      </c>
+      <c r="N9" s="20">
+        <v>4</v>
+      </c>
+      <c r="O9" s="20">
+        <v>1</v>
+      </c>
+      <c r="P9" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="16">
         <v>9.1435185185185185E-4</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="17">
         <v>9.2592592592592585E-4</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="17">
         <v>9.4907407407407408E-4</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="18">
         <v>2.3148148148148151E-3</v>
       </c>
-      <c r="M10" s="21">
-        <v>3</v>
-      </c>
-      <c r="N10" s="22">
-        <v>4</v>
-      </c>
-      <c r="O10" s="22">
-        <v>2</v>
-      </c>
-      <c r="P10" s="22">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="19">
+        <v>3</v>
+      </c>
+      <c r="N10" s="20">
+        <v>4</v>
+      </c>
+      <c r="O10" s="20">
+        <v>2</v>
+      </c>
+      <c r="P10" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="16">
         <v>9.0277777777777784E-4</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="17">
         <v>9.1435185185185185E-4</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="17">
         <v>9.2592592592592585E-4</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="18">
         <v>2.5925925925925925E-3</v>
       </c>
-      <c r="M11" s="21">
-        <v>2</v>
-      </c>
-      <c r="N11" s="22">
-        <v>5</v>
-      </c>
-      <c r="O11" s="22">
-        <v>1</v>
-      </c>
-      <c r="P11" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="19">
+        <v>2</v>
+      </c>
+      <c r="N11" s="20">
+        <v>5</v>
+      </c>
+      <c r="O11" s="20">
+        <v>1</v>
+      </c>
+      <c r="P11" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="C12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="16">
         <v>2.6620370370370372E-4</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="17">
         <v>2.7777777777777778E-4</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="17">
         <v>2.8935185185185189E-4</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="18">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="M12" s="21">
-        <v>2</v>
-      </c>
-      <c r="N12" s="22">
-        <v>4</v>
-      </c>
-      <c r="O12" s="22">
-        <v>5</v>
-      </c>
-      <c r="P12" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="19">
+        <v>2</v>
+      </c>
+      <c r="N12" s="20">
+        <v>4</v>
+      </c>
+      <c r="O12" s="20">
+        <v>5</v>
+      </c>
+      <c r="P12" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="C13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="16">
         <v>6.018518518518519E-4</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="17">
         <v>6.134259259259259E-4</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="17">
         <v>6.2500000000000001E-4</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="18">
         <v>1.6782407407407406E-3</v>
       </c>
-      <c r="M13" s="21">
-        <v>4</v>
-      </c>
-      <c r="N13" s="22">
-        <v>3</v>
-      </c>
-      <c r="O13" s="22">
-        <v>2</v>
-      </c>
-      <c r="P13" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="19">
+        <v>4</v>
+      </c>
+      <c r="N13" s="20">
+        <v>3</v>
+      </c>
+      <c r="O13" s="20">
+        <v>2</v>
+      </c>
+      <c r="P13" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>12</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="C14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="16">
         <v>6.9444444444444444E-5</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="17">
         <v>8.1018518518518516E-5</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="17">
         <v>9.2592592592592588E-5</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="18">
         <v>8.3333333333333339E-4</v>
       </c>
-      <c r="M14" s="21">
-        <v>4</v>
-      </c>
-      <c r="N14" s="22">
-        <v>3</v>
-      </c>
-      <c r="O14" s="22">
-        <v>1</v>
-      </c>
-      <c r="P14" s="22">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="19">
+        <v>4</v>
+      </c>
+      <c r="N14" s="20">
+        <v>3</v>
+      </c>
+      <c r="O14" s="20">
+        <v>1</v>
+      </c>
+      <c r="P14" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="16">
         <v>2.7777777777777778E-4</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="17">
         <v>3.0092592592592595E-4</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="17">
         <v>3.1250000000000001E-4</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="18">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="M15" s="21">
-        <v>4</v>
-      </c>
-      <c r="N15" s="22">
-        <v>1</v>
-      </c>
-      <c r="O15" s="22">
-        <v>3</v>
-      </c>
-      <c r="P15" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="19">
+        <v>4</v>
+      </c>
+      <c r="N15" s="20">
+        <v>1</v>
+      </c>
+      <c r="O15" s="20">
+        <v>3</v>
+      </c>
+      <c r="P15" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="C16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="16">
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="17">
         <v>1.3888888888888889E-4</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="17">
         <v>1.5046296296296297E-4</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="18">
         <v>2.9513888888888888E-3</v>
       </c>
-      <c r="M16" s="21">
-        <v>3</v>
-      </c>
-      <c r="N16" s="22">
-        <v>4</v>
-      </c>
-      <c r="O16" s="22">
-        <v>1</v>
-      </c>
-      <c r="P16" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="19">
+        <v>3</v>
+      </c>
+      <c r="N16" s="20">
+        <v>4</v>
+      </c>
+      <c r="O16" s="20">
+        <v>1</v>
+      </c>
+      <c r="P16" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>15</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="C17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="16">
         <v>1.1574074074074073E-4</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="17">
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="17">
         <v>1.3888888888888889E-4</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="18">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="M17" s="21">
-        <v>3</v>
-      </c>
-      <c r="N17" s="22">
-        <v>4</v>
-      </c>
-      <c r="O17" s="22">
-        <v>1</v>
-      </c>
-      <c r="P17" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="19">
+        <v>3</v>
+      </c>
+      <c r="N17" s="20">
+        <v>4</v>
+      </c>
+      <c r="O17" s="20">
+        <v>1</v>
+      </c>
+      <c r="P17" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>16</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="C18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="16">
         <v>1.3888888888888889E-4</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="17">
         <v>1.6203703703703703E-4</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="17">
         <v>1.7361111111111112E-4</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="18">
         <v>2.1990740740740742E-3</v>
       </c>
-      <c r="M18" s="21">
-        <v>4</v>
-      </c>
-      <c r="N18" s="22">
-        <v>1</v>
-      </c>
-      <c r="O18" s="22">
-        <v>5</v>
-      </c>
-      <c r="P18" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="19">
+        <v>4</v>
+      </c>
+      <c r="N18" s="20">
+        <v>1</v>
+      </c>
+      <c r="O18" s="20">
+        <v>5</v>
+      </c>
+      <c r="P18" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>17</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="16">
         <v>1.6203703703703703E-4</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="17">
         <v>1.7361111111111112E-4</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <v>1.8518518518518518E-4</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="18">
         <v>1.4351851851851854E-3</v>
       </c>
-      <c r="M19" s="21">
-        <v>3</v>
-      </c>
-      <c r="N19" s="22">
-        <v>4</v>
-      </c>
-      <c r="O19" s="22">
-        <v>1</v>
-      </c>
-      <c r="P19" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="19">
+        <v>3</v>
+      </c>
+      <c r="N19" s="20">
+        <v>4</v>
+      </c>
+      <c r="O19" s="20">
+        <v>1</v>
+      </c>
+      <c r="P19" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>18</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="16">
         <v>1.0185185185185186E-3</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="17">
         <v>1.0300925925925926E-3</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="17">
         <v>1.0532407407407407E-3</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="18">
         <v>2.9513888888888888E-3</v>
       </c>
-      <c r="M20" s="21">
-        <v>1</v>
-      </c>
-      <c r="N20" s="22">
-        <v>2</v>
-      </c>
-      <c r="O20" s="22">
-        <v>4</v>
-      </c>
-      <c r="P20" s="22">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="19">
+        <v>1</v>
+      </c>
+      <c r="N20" s="20">
+        <v>2</v>
+      </c>
+      <c r="O20" s="20">
+        <v>4</v>
+      </c>
+      <c r="P20" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="16">
         <v>6.3657407407407402E-4</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="17">
         <v>6.4814814814814813E-4</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="17">
         <v>6.7129629629629625E-4</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="18">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="M21" s="21">
-        <v>1</v>
-      </c>
-      <c r="N21" s="22">
-        <v>5</v>
-      </c>
-      <c r="O21" s="22">
-        <v>2</v>
-      </c>
-      <c r="P21" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="19">
+        <v>1</v>
+      </c>
+      <c r="N21" s="20">
+        <v>5</v>
+      </c>
+      <c r="O21" s="20">
+        <v>2</v>
+      </c>
+      <c r="P21" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>20</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="16">
         <v>9.7222222222222209E-4</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="17">
         <v>9.8379629629629642E-4</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="17">
         <v>9.9537037037037042E-4</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="18">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="M22" s="21">
-        <v>1</v>
-      </c>
-      <c r="N22" s="22">
-        <v>5</v>
-      </c>
-      <c r="O22" s="22">
-        <v>2</v>
-      </c>
-      <c r="P22" s="22">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="19">
+        <v>1</v>
+      </c>
+      <c r="N22" s="20">
+        <v>5</v>
+      </c>
+      <c r="O22" s="20">
+        <v>2</v>
+      </c>
+      <c r="P22" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>21</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="C23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="14" t="s">
         <v>64</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="16">
         <v>5.6712962962962956E-4</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="17">
         <v>5.7870370370370378E-4</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="17">
         <v>5.9027777777777778E-4</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="18">
         <v>1.8518518518518517E-3</v>
       </c>
-      <c r="M23" s="21">
-        <v>4</v>
-      </c>
-      <c r="N23" s="22">
-        <v>1</v>
-      </c>
-      <c r="O23" s="22">
-        <v>5</v>
-      </c>
-      <c r="P23" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="19">
+        <v>4</v>
+      </c>
+      <c r="N23" s="20">
+        <v>1</v>
+      </c>
+      <c r="O23" s="20">
+        <v>5</v>
+      </c>
+      <c r="P23" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>22</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="C24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="14" t="s">
         <v>64</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="16">
         <v>2.199074074074074E-4</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="17">
         <v>2.3148148148148146E-4</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="17">
         <v>2.5462962962962961E-4</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="18">
         <v>1.6782407407407406E-3</v>
       </c>
-      <c r="M24" s="21">
-        <v>4</v>
-      </c>
-      <c r="N24" s="22">
-        <v>1</v>
-      </c>
-      <c r="O24" s="22">
-        <v>5</v>
-      </c>
-      <c r="P24" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="19">
+        <v>4</v>
+      </c>
+      <c r="N24" s="20">
+        <v>1</v>
+      </c>
+      <c r="O24" s="20">
+        <v>5</v>
+      </c>
+      <c r="P24" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>23</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="C25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="16">
         <v>1.8518518518518518E-4</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="17">
         <v>1.9675925925925926E-4</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="17">
         <v>2.199074074074074E-4</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="18">
         <v>1.4583333333333334E-3</v>
       </c>
-      <c r="M25" s="21">
-        <v>5</v>
-      </c>
-      <c r="N25" s="22">
-        <v>1</v>
-      </c>
-      <c r="O25" s="22">
-        <v>3</v>
-      </c>
-      <c r="P25" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="19">
+        <v>5</v>
+      </c>
+      <c r="N25" s="20">
+        <v>1</v>
+      </c>
+      <c r="O25" s="20">
+        <v>3</v>
+      </c>
+      <c r="P25" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>24</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="16" t="s">
+      <c r="C26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="16">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="17">
         <v>3.7037037037037035E-4</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="17">
         <v>3.8194444444444446E-4</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="18">
         <v>1.5046296296296294E-3</v>
       </c>
-      <c r="M26" s="21">
-        <v>5</v>
-      </c>
-      <c r="N26" s="22">
-        <v>1</v>
-      </c>
-      <c r="O26" s="22">
-        <v>3</v>
-      </c>
-      <c r="P26" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="19">
+        <v>5</v>
+      </c>
+      <c r="N26" s="20">
+        <v>1</v>
+      </c>
+      <c r="O26" s="20">
+        <v>3</v>
+      </c>
+      <c r="P26" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>25</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="16" t="s">
+      <c r="C27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="16">
         <v>2.6620370370370372E-4</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="17">
         <v>2.7777777777777778E-4</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="17">
         <v>2.8935185185185189E-4</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="18">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="M27" s="21">
-        <v>2</v>
-      </c>
-      <c r="N27" s="22">
-        <v>5</v>
-      </c>
-      <c r="O27" s="22">
-        <v>1</v>
-      </c>
-      <c r="P27" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="19">
+        <v>2</v>
+      </c>
+      <c r="N27" s="20">
+        <v>5</v>
+      </c>
+      <c r="O27" s="20">
+        <v>1</v>
+      </c>
+      <c r="P27" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>26</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="C28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="16">
         <v>1.7361111111111112E-4</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="17">
         <v>1.9675925925925926E-4</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="17">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="18">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="M28" s="21">
-        <v>1</v>
-      </c>
-      <c r="N28" s="22">
-        <v>5</v>
-      </c>
-      <c r="O28" s="22">
-        <v>3</v>
-      </c>
-      <c r="P28" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="19">
+        <v>1</v>
+      </c>
+      <c r="N28" s="20">
+        <v>5</v>
+      </c>
+      <c r="O28" s="20">
+        <v>3</v>
+      </c>
+      <c r="P28" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="C29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="16">
         <v>7.7546296296296304E-4</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="17">
         <v>7.9861111111111105E-4</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="17">
         <v>8.1018518518518516E-4</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="18">
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="M29" s="21">
-        <v>5</v>
-      </c>
-      <c r="N29" s="22">
-        <v>1</v>
-      </c>
-      <c r="O29" s="22">
-        <v>4</v>
-      </c>
-      <c r="P29" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="19">
+        <v>5</v>
+      </c>
+      <c r="N29" s="20">
+        <v>1</v>
+      </c>
+      <c r="O29" s="20">
+        <v>4</v>
+      </c>
+      <c r="P29" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>28</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="16" t="s">
+      <c r="C30" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="16">
         <v>7.8703703703703705E-4</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="17">
         <v>7.9861111111111105E-4</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="17">
         <v>8.1018518518518516E-4</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="18">
         <v>1.736111111111111E-3</v>
       </c>
-      <c r="M30" s="21">
-        <v>2</v>
-      </c>
-      <c r="N30" s="22">
-        <v>5</v>
-      </c>
-      <c r="O30" s="22">
-        <v>3</v>
-      </c>
-      <c r="P30" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="19">
+        <v>2</v>
+      </c>
+      <c r="N30" s="20">
+        <v>5</v>
+      </c>
+      <c r="O30" s="20">
+        <v>3</v>
+      </c>
+      <c r="P30" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>29</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="C31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="16">
         <v>2.6620370370370372E-4</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="17">
         <v>2.7777777777777778E-4</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="17">
         <v>2.8935185185185189E-4</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="18">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="M31" s="21">
-        <v>5</v>
-      </c>
-      <c r="N31" s="22">
-        <v>1</v>
-      </c>
-      <c r="O31" s="22">
-        <v>4</v>
-      </c>
-      <c r="P31" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="19">
+        <v>5</v>
+      </c>
+      <c r="N31" s="20">
+        <v>1</v>
+      </c>
+      <c r="O31" s="20">
+        <v>4</v>
+      </c>
+      <c r="P31" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>30</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="16" t="s">
+      <c r="C32" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="16">
         <v>2.7777777777777778E-4</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="17">
         <v>2.8935185185185189E-4</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="17">
         <v>3.1250000000000001E-4</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="18">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="M32" s="21">
-        <v>4</v>
-      </c>
-      <c r="N32" s="22">
-        <v>1</v>
-      </c>
-      <c r="O32" s="22">
-        <v>3</v>
-      </c>
-      <c r="P32" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="19">
+        <v>4</v>
+      </c>
+      <c r="N32" s="20">
+        <v>1</v>
+      </c>
+      <c r="O32" s="20">
+        <v>3</v>
+      </c>
+      <c r="P32" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>31</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="16" t="s">
+      <c r="C33" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="14" t="s">
         <v>64</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="16">
         <v>7.5231481481481471E-4</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="17">
         <v>7.6388888888888893E-4</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="17">
         <v>7.7546296296296304E-4</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="18">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="M33" s="21">
-        <v>3</v>
-      </c>
-      <c r="N33" s="22">
-        <v>5</v>
-      </c>
-      <c r="O33" s="22">
-        <v>2</v>
-      </c>
-      <c r="P33" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="19">
+        <v>3</v>
+      </c>
+      <c r="N33" s="20">
+        <v>5</v>
+      </c>
+      <c r="O33" s="20">
+        <v>2</v>
+      </c>
+      <c r="P33" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>32</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="16" t="s">
+      <c r="C34" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="14" t="s">
         <v>64</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="16">
         <v>6.134259259259259E-4</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="17">
         <v>6.2500000000000001E-4</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="17">
         <v>6.3657407407407402E-4</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L34" s="18">
         <v>2.0138888888888888E-3</v>
       </c>
-      <c r="M34" s="21">
-        <v>3</v>
-      </c>
-      <c r="N34" s="22">
-        <v>5</v>
-      </c>
-      <c r="O34" s="22">
-        <v>2</v>
-      </c>
-      <c r="P34" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q34" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="19">
+        <v>3</v>
+      </c>
+      <c r="N34" s="20">
+        <v>5</v>
+      </c>
+      <c r="O34" s="20">
+        <v>2</v>
+      </c>
+      <c r="P34" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>33</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="16" t="s">
+      <c r="C35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="16">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="17">
         <v>3.3564814814814812E-4</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="17">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="18">
         <v>2.6041666666666665E-3</v>
       </c>
-      <c r="M35" s="21">
-        <v>5</v>
-      </c>
-      <c r="N35" s="22">
-        <v>4</v>
-      </c>
-      <c r="O35" s="22">
-        <v>2</v>
-      </c>
-      <c r="P35" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="19">
+        <v>5</v>
+      </c>
+      <c r="N35" s="20">
+        <v>4</v>
+      </c>
+      <c r="O35" s="20">
+        <v>2</v>
+      </c>
+      <c r="P35" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>34</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="16" t="s">
+      <c r="C36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="16">
         <v>2.8935185185185189E-4</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="17">
         <v>3.1250000000000001E-4</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="17">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="18">
         <v>3.0671296296296297E-3</v>
       </c>
-      <c r="M36" s="21">
-        <v>5</v>
-      </c>
-      <c r="N36" s="22">
-        <v>3</v>
-      </c>
-      <c r="O36" s="22">
-        <v>1</v>
-      </c>
-      <c r="P36" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="19">
+        <v>5</v>
+      </c>
+      <c r="N36" s="20">
+        <v>3</v>
+      </c>
+      <c r="O36" s="20">
+        <v>1</v>
+      </c>
+      <c r="P36" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>35</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="16" t="s">
+      <c r="C37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="16">
         <v>3.3564814814814812E-4</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="17">
         <v>3.5879629629629635E-4</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="17">
         <v>3.7037037037037035E-4</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="18">
         <v>2.8356481481481479E-3</v>
       </c>
-      <c r="M37" s="21">
-        <v>2</v>
-      </c>
-      <c r="N37" s="22">
-        <v>5</v>
-      </c>
-      <c r="O37" s="22">
-        <v>3</v>
-      </c>
-      <c r="P37" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q37" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="19">
+        <v>2</v>
+      </c>
+      <c r="N37" s="20">
+        <v>5</v>
+      </c>
+      <c r="O37" s="20">
+        <v>3</v>
+      </c>
+      <c r="P37" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>36</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="16" t="s">
+      <c r="C38" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="16">
         <v>3.7037037037037035E-4</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="17">
         <v>3.8194444444444446E-4</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="17">
         <v>3.9351851851851852E-4</v>
       </c>
-      <c r="L38" s="20">
+      <c r="L38" s="18">
         <v>2.8356481481481479E-3</v>
       </c>
-      <c r="M38" s="21">
-        <v>4</v>
-      </c>
-      <c r="N38" s="22">
-        <v>3</v>
-      </c>
-      <c r="O38" s="22">
-        <v>2</v>
-      </c>
-      <c r="P38" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="19">
+        <v>4</v>
+      </c>
+      <c r="N38" s="20">
+        <v>3</v>
+      </c>
+      <c r="O38" s="20">
+        <v>2</v>
+      </c>
+      <c r="P38" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>37</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="14" t="s">
         <v>83</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="16">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="17">
         <v>3.5879629629629635E-4</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K39" s="17">
         <v>3.8194444444444446E-4</v>
       </c>
-      <c r="L39" s="20">
+      <c r="L39" s="18">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="M39" s="21">
-        <v>2</v>
-      </c>
-      <c r="N39" s="22">
-        <v>4</v>
-      </c>
-      <c r="O39" s="22">
-        <v>1</v>
-      </c>
-      <c r="P39" s="22">
-        <v>5</v>
-      </c>
-      <c r="Q39" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="19">
+        <v>2</v>
+      </c>
+      <c r="N39" s="20">
+        <v>4</v>
+      </c>
+      <c r="O39" s="20">
+        <v>1</v>
+      </c>
+      <c r="P39" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>38</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="14" t="s">
         <v>83</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="16">
         <v>2.7777777777777778E-4</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="17">
         <v>2.8935185185185189E-4</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="17">
         <v>3.0092592592592595E-4</v>
       </c>
-      <c r="L40" s="20">
+      <c r="L40" s="18">
         <v>1.0416666666666667E-3</v>
       </c>
-      <c r="M40" s="21">
-        <v>4</v>
-      </c>
-      <c r="N40" s="22">
-        <v>2</v>
-      </c>
-      <c r="O40" s="22">
-        <v>5</v>
-      </c>
-      <c r="P40" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="19">
+        <v>4</v>
+      </c>
+      <c r="N40" s="20">
+        <v>2</v>
+      </c>
+      <c r="O40" s="20">
+        <v>5</v>
+      </c>
+      <c r="P40" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>39</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="14" t="s">
         <v>83</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I41" s="16">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="17">
         <v>3.5879629629629635E-4</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K41" s="17">
         <v>3.7037037037037035E-4</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L41" s="18">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="M41" s="21">
-        <v>1</v>
-      </c>
-      <c r="N41" s="22">
-        <v>5</v>
-      </c>
-      <c r="O41" s="22">
-        <v>2</v>
-      </c>
-      <c r="P41" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41" s="19">
+        <v>1</v>
+      </c>
+      <c r="N41" s="20">
+        <v>5</v>
+      </c>
+      <c r="O41" s="20">
+        <v>2</v>
+      </c>
+      <c r="P41" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>40</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="14" t="s">
         <v>83</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="16">
         <v>6.134259259259259E-4</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J42" s="17">
         <v>6.2500000000000001E-4</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="17">
         <v>6.3657407407407402E-4</v>
       </c>
-      <c r="L42" s="20">
+      <c r="L42" s="18">
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="M42" s="21">
-        <v>2</v>
-      </c>
-      <c r="N42" s="22">
-        <v>5</v>
-      </c>
-      <c r="O42" s="22">
-        <v>1</v>
-      </c>
-      <c r="P42" s="22">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="19">
+        <v>2</v>
+      </c>
+      <c r="N42" s="20">
+        <v>5</v>
+      </c>
+      <c r="O42" s="20">
+        <v>1</v>
+      </c>
+      <c r="P42" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>41</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="14" t="s">
         <v>64</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="16">
         <v>4.5138888888888892E-4</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="17">
         <v>4.7453703703703704E-4</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K43" s="17">
         <v>4.8611111111111104E-4</v>
       </c>
-      <c r="L43" s="20">
+      <c r="L43" s="18">
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="M43" s="21">
-        <v>2</v>
-      </c>
-      <c r="N43" s="22">
-        <v>4</v>
-      </c>
-      <c r="O43" s="22">
-        <v>3</v>
-      </c>
-      <c r="P43" s="22">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="19">
+        <v>2</v>
+      </c>
+      <c r="N43" s="20">
+        <v>4</v>
+      </c>
+      <c r="O43" s="20">
+        <v>3</v>
+      </c>
+      <c r="P43" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>42</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="14" t="s">
         <v>64</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="16">
         <v>9.1435185185185185E-4</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="17">
         <v>9.2592592592592585E-4</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="17">
         <v>9.3750000000000007E-4</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="18">
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="M44" s="21">
-        <v>4</v>
-      </c>
-      <c r="N44" s="22">
-        <v>1</v>
-      </c>
-      <c r="O44" s="22">
-        <v>2</v>
-      </c>
-      <c r="P44" s="22">
-        <v>3</v>
-      </c>
-      <c r="Q44" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="19">
+        <v>4</v>
+      </c>
+      <c r="N44" s="20">
+        <v>1</v>
+      </c>
+      <c r="O44" s="20">
+        <v>2</v>
+      </c>
+      <c r="P44" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>43</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="14" t="s">
         <v>64</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I45" s="16">
         <v>7.407407407407407E-4</v>
       </c>
-      <c r="J45" s="19">
+      <c r="J45" s="17">
         <v>7.5231481481481471E-4</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K45" s="17">
         <v>7.6388888888888893E-4</v>
       </c>
-      <c r="L45" s="20">
+      <c r="L45" s="18">
         <v>1.6782407407407406E-3</v>
       </c>
-      <c r="M45" s="21">
-        <v>2</v>
-      </c>
-      <c r="N45" s="22">
-        <v>5</v>
-      </c>
-      <c r="O45" s="22">
-        <v>1</v>
-      </c>
-      <c r="P45" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="19">
+        <v>2</v>
+      </c>
+      <c r="N45" s="20">
+        <v>5</v>
+      </c>
+      <c r="O45" s="20">
+        <v>1</v>
+      </c>
+      <c r="P45" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>44</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="16" t="s">
+      <c r="C46" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="14" t="s">
         <v>64</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="16">
         <v>3.0092592592592595E-4</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J46" s="17">
         <v>3.1250000000000001E-4</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K46" s="17">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="L46" s="20">
+      <c r="L46" s="18">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="M46" s="21">
-        <v>2</v>
-      </c>
-      <c r="N46" s="22">
-        <v>5</v>
-      </c>
-      <c r="O46" s="22">
-        <v>3</v>
-      </c>
-      <c r="P46" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="19">
+        <v>2</v>
+      </c>
+      <c r="N46" s="20">
+        <v>5</v>
+      </c>
+      <c r="O46" s="20">
+        <v>3</v>
+      </c>
+      <c r="P46" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>45</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="16" t="s">
+      <c r="C47" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="16">
         <v>2.3148148148148146E-4</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="17">
         <v>2.4305555555555552E-4</v>
       </c>
-      <c r="K47" s="19">
+      <c r="K47" s="17">
         <v>2.5462962962962961E-4</v>
       </c>
-      <c r="L47" s="20">
+      <c r="L47" s="18">
         <v>5.7870370370370378E-4</v>
       </c>
-      <c r="M47" s="21">
-        <v>4</v>
-      </c>
-      <c r="N47" s="22">
-        <v>1</v>
-      </c>
-      <c r="O47" s="22">
-        <v>3</v>
-      </c>
-      <c r="P47" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q47" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M47" s="19">
+        <v>4</v>
+      </c>
+      <c r="N47" s="20">
+        <v>1</v>
+      </c>
+      <c r="O47" s="20">
+        <v>3</v>
+      </c>
+      <c r="P47" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>46</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="16" t="s">
+      <c r="C48" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="16">
         <v>3.0092592592592595E-4</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J48" s="17">
         <v>3.1250000000000001E-4</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K48" s="17">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="L48" s="20">
+      <c r="L48" s="18">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="M48" s="21">
-        <v>5</v>
-      </c>
-      <c r="N48" s="22">
-        <v>2</v>
-      </c>
-      <c r="O48" s="22">
-        <v>4</v>
-      </c>
-      <c r="P48" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M48" s="19">
+        <v>5</v>
+      </c>
+      <c r="N48" s="20">
+        <v>2</v>
+      </c>
+      <c r="O48" s="20">
+        <v>4</v>
+      </c>
+      <c r="P48" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>47</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="16" t="s">
+      <c r="C49" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="16">
         <v>2.8935185185185189E-4</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="17">
         <v>3.1250000000000001E-4</v>
       </c>
-      <c r="K49" s="19">
+      <c r="K49" s="17">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="L49" s="20">
+      <c r="L49" s="18">
         <v>6.3657407407407402E-4</v>
       </c>
-      <c r="M49" s="21">
-        <v>4</v>
-      </c>
-      <c r="N49" s="22">
-        <v>3</v>
-      </c>
-      <c r="O49" s="22">
-        <v>1</v>
-      </c>
-      <c r="P49" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q49" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M49" s="19">
+        <v>4</v>
+      </c>
+      <c r="N49" s="20">
+        <v>3</v>
+      </c>
+      <c r="O49" s="20">
+        <v>1</v>
+      </c>
+      <c r="P49" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>48</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="16" t="s">
+      <c r="C50" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="16">
         <v>3.7037037037037035E-4</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J50" s="17">
         <v>3.8194444444444446E-4</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K50" s="17">
         <v>3.9351851851851852E-4</v>
       </c>
-      <c r="L50" s="20">
+      <c r="L50" s="18">
         <v>8.1018518518518516E-4</v>
       </c>
-      <c r="M50" s="21">
-        <v>4</v>
-      </c>
-      <c r="N50" s="22">
-        <v>1</v>
-      </c>
-      <c r="O50" s="22">
-        <v>2</v>
-      </c>
-      <c r="P50" s="22">
-        <v>3</v>
-      </c>
-      <c r="Q50" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M50" s="19">
+        <v>4</v>
+      </c>
+      <c r="N50" s="20">
+        <v>1</v>
+      </c>
+      <c r="O50" s="20">
+        <v>2</v>
+      </c>
+      <c r="P50" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q50" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>49</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="16" t="s">
+      <c r="C51" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="14" t="s">
         <v>101</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I51" s="16">
         <v>2.7777777777777778E-4</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J51" s="17">
         <v>2.8935185185185189E-4</v>
       </c>
-      <c r="K51" s="19">
+      <c r="K51" s="17">
         <v>3.0092592592592595E-4</v>
       </c>
-      <c r="L51" s="20">
+      <c r="L51" s="18">
         <v>1.6782407407407406E-3</v>
       </c>
-      <c r="M51" s="21">
-        <v>4</v>
-      </c>
-      <c r="N51" s="22">
-        <v>1</v>
-      </c>
-      <c r="O51" s="22">
-        <v>5</v>
-      </c>
-      <c r="P51" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q51" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="19">
+        <v>4</v>
+      </c>
+      <c r="N51" s="20">
+        <v>1</v>
+      </c>
+      <c r="O51" s="20">
+        <v>5</v>
+      </c>
+      <c r="P51" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>50</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="16" t="s">
+      <c r="C52" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="14" t="s">
         <v>101</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="16">
         <v>1.7361111111111112E-4</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J52" s="17">
         <v>1.8518518518518518E-4</v>
       </c>
-      <c r="K52" s="19">
+      <c r="K52" s="17">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="L52" s="20">
+      <c r="L52" s="18">
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="M52" s="21">
-        <v>3</v>
-      </c>
-      <c r="N52" s="22">
-        <v>2</v>
-      </c>
-      <c r="O52" s="22">
-        <v>4</v>
-      </c>
-      <c r="P52" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="19">
+        <v>3</v>
+      </c>
+      <c r="N52" s="20">
+        <v>2</v>
+      </c>
+      <c r="O52" s="20">
+        <v>4</v>
+      </c>
+      <c r="P52" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>51</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="16" t="s">
+      <c r="C53" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="14" t="s">
         <v>101</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I53" s="16">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="17">
         <v>3.3564814814814812E-4</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="17">
         <v>3.5879629629629635E-4</v>
       </c>
-      <c r="L53" s="20">
+      <c r="L53" s="18">
         <v>1.736111111111111E-3</v>
       </c>
-      <c r="M53" s="21">
-        <v>2</v>
-      </c>
-      <c r="N53" s="22">
-        <v>5</v>
-      </c>
-      <c r="O53" s="22">
-        <v>3</v>
-      </c>
-      <c r="P53" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q53" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M53" s="19">
+        <v>2</v>
+      </c>
+      <c r="N53" s="20">
+        <v>5</v>
+      </c>
+      <c r="O53" s="20">
+        <v>3</v>
+      </c>
+      <c r="P53" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>52</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="16" t="s">
+      <c r="C54" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="14" t="s">
         <v>101</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="16">
         <v>4.9768518518518521E-4</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="17">
         <v>5.0925925925925921E-4</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K54" s="17">
         <v>5.2083333333333333E-4</v>
       </c>
-      <c r="L54" s="20">
+      <c r="L54" s="18">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="M54" s="21">
-        <v>4</v>
-      </c>
-      <c r="N54" s="22">
-        <v>2</v>
-      </c>
-      <c r="O54" s="22">
-        <v>3</v>
-      </c>
-      <c r="P54" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M54" s="19">
+        <v>4</v>
+      </c>
+      <c r="N54" s="20">
+        <v>2</v>
+      </c>
+      <c r="O54" s="20">
+        <v>3</v>
+      </c>
+      <c r="P54" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>53</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="16" t="s">
+      <c r="D55" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="14" t="s">
         <v>107</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I55" s="16">
         <v>8.2175925925925917E-4</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J55" s="17">
         <v>8.3333333333333339E-4</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K55" s="17">
         <v>8.449074074074075E-4</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L55" s="18">
         <v>2.5462962962962961E-3</v>
       </c>
-      <c r="M55" s="21">
-        <v>1</v>
-      </c>
-      <c r="N55" s="22">
-        <v>5</v>
-      </c>
-      <c r="O55" s="22">
-        <v>3</v>
-      </c>
-      <c r="P55" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q55" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M55" s="19">
+        <v>1</v>
+      </c>
+      <c r="N55" s="20">
+        <v>5</v>
+      </c>
+      <c r="O55" s="20">
+        <v>3</v>
+      </c>
+      <c r="P55" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <v>54</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="16" t="s">
+      <c r="D56" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" s="14" t="s">
         <v>107</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="16">
         <v>4.9768518518518521E-4</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J56" s="17">
         <v>5.0925925925925921E-4</v>
       </c>
-      <c r="K56" s="19">
+      <c r="K56" s="17">
         <v>5.3240740740740744E-4</v>
       </c>
-      <c r="L56" s="20">
+      <c r="L56" s="18">
         <v>2.3726851851851851E-3</v>
       </c>
-      <c r="M56" s="21">
-        <v>4</v>
-      </c>
-      <c r="N56" s="22">
-        <v>1</v>
-      </c>
-      <c r="O56" s="22">
-        <v>2</v>
-      </c>
-      <c r="P56" s="22">
-        <v>3</v>
-      </c>
-      <c r="Q56" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="24">
+      <c r="M56" s="19">
+        <v>4</v>
+      </c>
+      <c r="N56" s="20">
+        <v>1</v>
+      </c>
+      <c r="O56" s="20">
+        <v>2</v>
+      </c>
+      <c r="P56" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="22">
         <v>55</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G57" s="24" t="s">
+      <c r="G57" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="H57" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="25">
         <v>3.3564814814814812E-4</v>
       </c>
-      <c r="J57" s="28">
+      <c r="J57" s="26">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="K57" s="28">
+      <c r="K57" s="26">
         <v>3.7037037037037035E-4</v>
       </c>
-      <c r="L57" s="29">
+      <c r="L57" s="27">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="M57" s="30">
-        <v>1</v>
-      </c>
-      <c r="N57" s="31">
-        <v>4</v>
-      </c>
-      <c r="O57" s="31">
-        <v>3</v>
-      </c>
-      <c r="P57" s="31">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="32">
+      <c r="M57" s="28">
+        <v>1</v>
+      </c>
+      <c r="N57" s="29">
+        <v>4</v>
+      </c>
+      <c r="O57" s="29">
+        <v>3</v>
+      </c>
+      <c r="P57" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="30">
         <v>5</v>
       </c>
     </row>
@@ -4013,340 +4311,341 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37" style="33" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="37" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
-        <v>2</v>
-      </c>
-      <c r="B3" s="37" t="s">
+    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="36">
         <v>1.545138888888889E-2</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="E3" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="36">
         <v>8.564814814814815E-3</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
+    <row r="5" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="36">
         <v>9.5833333333333343E-3</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
-        <v>5</v>
-      </c>
-      <c r="B6" s="37" t="s">
+    <row r="6" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="36">
         <v>8.0787037037037043E-3</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="E6" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="34">
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="36">
         <v>1.7245370370370369E-2</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="34">
         <v>7</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="36">
         <v>1.7685185185185182E-2</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="E8" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A9" s="34">
         <v>8</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="36">
         <v>1.0185185185185184E-2</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="E9" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="34">
         <v>9</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="36">
         <v>1.3194444444444444E-2</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="34">
         <v>10</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="36">
         <v>1.3541666666666667E-2</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+    <row r="12" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A12" s="34">
         <v>11</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="36">
         <v>2.4652777777777777E-2</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+      <c r="E12" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A13" s="34">
         <v>12</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="36">
         <v>1.6435185185185188E-2</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="34">
         <v>13</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="36">
         <v>9.9537037037037042E-3</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="E14" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="34">
         <v>14</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="36">
         <v>1.6782407407407409E-2</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+    <row r="16" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="34">
         <v>15</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="36">
         <v>1.3483796296296298E-2</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
+    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="34">
         <v>16</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="36">
         <v>9.7222222222222224E-3</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="E17" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18" s="34">
         <v>17</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="36">
         <v>2.1701388888888892E-2</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="34" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
